--- a/Arquivos/Lojas.xlsx
+++ b/Arquivos/Lojas.xlsx
@@ -52,7 +52,7 @@
     <t>Ribeirão Shopping</t>
   </si>
   <si>
-    <t xml:space="preserve"> Shopping Morumbi</t>
+    <t>Shopping Morumbi</t>
   </si>
   <si>
     <t>Parque Dom Pedro Shopping</t>
@@ -111,22 +111,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -135,15 +129,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -365,7 +362,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -373,7 +370,7 @@
       <c r="A2" s="1">
         <v>1.0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -381,7 +378,7 @@
       <c r="A3" s="1">
         <v>2.0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -389,7 +386,7 @@
       <c r="A4" s="1">
         <v>3.0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -397,7 +394,7 @@
       <c r="A5" s="1">
         <v>4.0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -405,7 +402,7 @@
       <c r="A6" s="1">
         <v>5.0</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -413,7 +410,7 @@
       <c r="A7" s="1">
         <v>6.0</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -421,7 +418,7 @@
       <c r="A8" s="1">
         <v>7.0</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -429,7 +426,7 @@
       <c r="A9" s="1">
         <v>8.0</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -437,7 +434,7 @@
       <c r="A10" s="1">
         <v>9.0</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -445,7 +442,7 @@
       <c r="A11" s="1">
         <v>10.0</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -453,7 +450,7 @@
       <c r="A12" s="1">
         <v>11.0</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -469,7 +466,7 @@
       <c r="A14" s="1">
         <v>13.0</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -477,7 +474,7 @@
       <c r="A15" s="1">
         <v>14.0</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -485,7 +482,7 @@
       <c r="A16" s="1">
         <v>15.0</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -493,7 +490,7 @@
       <c r="A17" s="1">
         <v>16.0</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -501,7 +498,7 @@
       <c r="A18" s="1">
         <v>17.0</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -557,7 +554,7 @@
       <c r="A25" s="1">
         <v>24.0</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -568,6 +565,9 @@
       <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
